--- a/docs/User Stories.xlsx
+++ b/docs/User Stories.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lennart e\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\amro.linda.15170\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{693C49B6-E54C-4902-BE54-853DC352D0FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{1CC34C0E-78F1-494A-B8FF-3E1046EF4A63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3825" yWindow="2850" windowWidth="21600" windowHeight="11325" xr2:uid="{6E36DC40-5F18-4EBE-9BC3-7D855008A313}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{6E36DC40-5F18-4EBE-9BC3-7D855008A313}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -107,12 +107,12 @@
     <t>dass mein aktueller Standort automatisch erkannt wird</t>
   </si>
   <si>
-    <t>ich sehe dadurch sofort alle Aktivitäten in meiner Nähe</t>
+    <t>ich sofort Aktivitäten in meiner Nähe sehe</t>
   </si>
   <si>
     <t>- App fragt nach Standortberechtigung
-- Standort wird möglichst genau erkannt
-- Bei Ablehnung kann der Standort manuell eingegeben werden</t>
+- Standort wird korrekt erkannt
+- Bei Ablehnung kann Standort manuell eingegeben werden</t>
   </si>
   <si>
     <t>Umkreissuche</t>
@@ -121,21 +121,21 @@
     <t>Aktivitäten in einem einstellbaren Radius sehen</t>
   </si>
   <si>
-    <t>ich finde so passende Vorschläge in meiner Umgebung</t>
-  </si>
-  <si>
-    <t>- Der Radius istauswählbar (z.B. 1km ... 100km)
+    <t>ich passende Vorschläge in meiner Umgebung finde</t>
+  </si>
+  <si>
+    <t>- Radius auswählbar (z.B. 1km, 5km, 10km)
 - Liste aktualisiert sich automatisch
-- Entfernung wird bei jeder Aktivität angezeigt</t>
+- Entfernung wird pro Aktivität angezeigt</t>
   </si>
   <si>
     <t>Filter</t>
   </si>
   <si>
-    <t>Aktivitäten können nach Kategorien gefiltert werden (zb. Restaurant, Event etc.)</t>
-  </si>
-  <si>
-    <t>Schnelles finden von passenden Aktivitäten</t>
+    <t>nach Kategorien (z.B. Essen, Sport, Kultur, Outdoor) filtern</t>
+  </si>
+  <si>
+    <t>ich schneller passende Aktivitäten finde</t>
   </si>
   <si>
     <t>-Mehrere Kategorien auswählbar
@@ -149,7 +149,7 @@
     <t>detaillierte Informationen zu einer Aktivität sehen</t>
   </si>
   <si>
-    <t>ich kann damit entscheiden, ob die Aktivität für mich geeignet ist</t>
+    <t>ich entscheiden kann, ob sie für mich geeignet ist</t>
   </si>
   <si>
     <t>-Beschreibung sichtbar
@@ -164,13 +164,13 @@
     <t>Benutzerverwaltung</t>
   </si>
   <si>
-    <t>Veranstalter</t>
+    <t>Anbieter</t>
   </si>
   <si>
     <t>ein Konto erstellen</t>
   </si>
   <si>
-    <t>Dieser kann seine Aktivitäten eintragen und verwalten</t>
+    <t>ich meine Aktivitäten eintragen und verwalten kann</t>
   </si>
   <si>
     <t>- Registrierung mit E-Mail &amp; Passwort
@@ -181,10 +181,10 @@
     <t>Aktivitätsverwaltung</t>
   </si>
   <si>
-    <t>eine neue Aktivität anbieten oder sein Lokal eintragen</t>
-  </si>
-  <si>
-    <t>Nutzer könnne Angebote in der App finden</t>
+    <t>eine neue Aktivität oder mein Lokal eintragen</t>
+  </si>
+  <si>
+    <t>Nutzer mein Angebot in der App finden können</t>
   </si>
   <si>
     <t>- Titel eingeben möglich
@@ -195,10 +195,10 @@
 - Aktivität erscheint in der Suche</t>
   </si>
   <si>
-    <t>Aktivität oder die Informationen zu dem Geschäft bearbeiten</t>
-  </si>
-  <si>
-    <t>Man kann Änderungen aktualisieren</t>
+    <t>meine Aktivität oder die Informationen zu meinem Geschäft bearbeiten</t>
+  </si>
+  <si>
+    <t>ich Änderungen aktualisieren kann</t>
   </si>
   <si>
     <t>- Bestehende Daten editierbar
@@ -209,7 +209,7 @@
     <t>meine Aktivität löschen</t>
   </si>
   <si>
-    <t>Die Aktivität ist nicht mehr öffentlich sichtbar</t>
+    <t>sie nicht mehr öffentlich sichtbar ist</t>
   </si>
   <si>
     <t>- Lösch-Button vorhanden
@@ -220,7 +220,7 @@
     <t>Product Goal 3 - Freizeit im Voraus planen</t>
   </si>
   <si>
-    <t>sodass ich Aktivitäten im Vorraus planen, Bewertungen abgeben und Favoriten markieren kann</t>
+    <t>sodass ich Aktivitäten im Vorraus planen kann Bewertungen abgeben und Favoriten markieren kann</t>
   </si>
   <si>
     <t>Aktivitätenplanung</t>
@@ -245,7 +245,7 @@
   </si>
   <si>
     <t>- Aktivität ist bis zur Endzeit im Status „Aktiv“ und wird Nutzern normal angezeigt
-- Nach der Endzeit wechselt der Status automatisch auf „Abgelaufen/Deaktiviert“                                                                                              -Veranstalter sieht abgelaufene Aktivitäten weiterhin unter „Meine Aktivitäten“ (mit Status)</t>
+- Nach der Endzeit wechselt der Status automatisch auf „Abgelaufen/Deaktiviert“                                                                                              -Anbieter sieht abgelaufene Aktivitäten weiterhin unter „Meine Aktivitäten“ (mit Status)</t>
   </si>
   <si>
     <t>Die Aktivität mit Freunden teilen</t>
@@ -262,7 +262,7 @@
     <t>eine Erinnerung vor einem geplanten Termin erhalten</t>
   </si>
   <si>
-    <t>Damit keine Aktivität vergessen wird</t>
+    <t>ich nichts vergesse</t>
   </si>
   <si>
     <t>- Erinnerung aktivierbar
@@ -422,7 +422,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="12">
     <dxf>
@@ -797,8 +797,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E7C2921-B808-43C3-9286-7C3D73229528}">
   <dimension ref="C1:M36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="L8" sqref="L8"/>
+    <sheetView tabSelected="1" topLeftCell="H14" workbookViewId="0">
+      <selection activeCell="K15" sqref="K15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
@@ -917,10 +917,10 @@
         <v>23</v>
       </c>
       <c r="K4" s="3">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="L4" s="3">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="M4" s="7" t="s">
         <v>24</v>
@@ -952,10 +952,10 @@
         <v>27</v>
       </c>
       <c r="K5" s="3">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="L5" s="3">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="M5" s="8" t="s">
         <v>28</v>
@@ -987,10 +987,10 @@
         <v>31</v>
       </c>
       <c r="K6" s="3">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="L6" s="3">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="M6" s="8" t="s">
         <v>32</v>
@@ -1022,10 +1022,10 @@
         <v>35</v>
       </c>
       <c r="K7" s="3">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="L7" s="3">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="M7" s="9" t="s">
         <v>36</v>
@@ -1057,10 +1057,10 @@
         <v>41</v>
       </c>
       <c r="K8" s="3">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="L8" s="3">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="M8" s="9" t="s">
         <v>42</v>
@@ -1092,10 +1092,10 @@
         <v>45</v>
       </c>
       <c r="K9" s="3">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="L9" s="3">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="M9" s="8" t="s">
         <v>46</v>
@@ -1127,10 +1127,10 @@
         <v>48</v>
       </c>
       <c r="K10" s="3">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="L10" s="3">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="M10" s="8" t="s">
         <v>49</v>
@@ -1162,10 +1162,10 @@
         <v>51</v>
       </c>
       <c r="K11" s="3">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="L11" s="3">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="M11" s="8" t="s">
         <v>52</v>
@@ -1197,10 +1197,10 @@
         <v>54</v>
       </c>
       <c r="K12" s="3">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="L12" s="3">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="M12" s="8" t="s">
         <v>42</v>
@@ -1232,10 +1232,10 @@
         <v>57</v>
       </c>
       <c r="K13" s="3">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="L13" s="3">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="M13" s="8" t="s">
         <v>58</v>
@@ -1267,10 +1267,10 @@
         <v>60</v>
       </c>
       <c r="K14" s="3">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="L14" s="3">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="M14" s="8" t="s">
         <v>61</v>
@@ -1302,11 +1302,9 @@
         <v>63</v>
       </c>
       <c r="K15" s="3">
-        <v>3</v>
-      </c>
-      <c r="L15" s="3">
-        <v>4</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="L15" s="3"/>
       <c r="M15" s="8" t="s">
         <v>64</v>
       </c>
@@ -1337,16 +1335,16 @@
         <v>66</v>
       </c>
       <c r="K16" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L16" s="3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="M16" s="8" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="17" spans="3:13" ht="120">
+    <row r="17" spans="3:13" ht="106.5">
       <c r="C17" s="3" t="s">
         <v>4</v>
       </c>
@@ -1627,18 +1625,18 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1756,11 +1754,11 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BE5B2139-0411-4F93-927B-CEF9303A0586}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B3CD4954-40DF-4E1B-A417-8AC111E78ABB}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B3CD4954-40DF-4E1B-A417-8AC111E78ABB}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BE5B2139-0411-4F93-927B-CEF9303A0586}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
